--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_20_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_20_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60634.01604202898</v>
+        <v>12066169.19236375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60634.01604202898</v>
+        <v>12066169.19236375</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1512.920443799065</v>
+        <v>125857.1703219332</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1512.920443799065</v>
+        <v>125857.1703219332</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189526106.97901</v>
+        <v>49083680.5985828</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10280.56358402678</v>
+        <v>1154452.966200359</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19401.42429544706</v>
+        <v>2129076.993770092</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28522.28500686711</v>
+        <v>3103701.021339875</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37643.14571828911</v>
+        <v>4078325.048909307</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46764.00642971112</v>
+        <v>5052949.07647874</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55884.86714113248</v>
+        <v>6027573.104048286</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65005.72785255179</v>
+        <v>7002197.131618121</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74126.5885639709</v>
+        <v>7976821.159188039</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83236.51923046361</v>
+        <v>8945345.829191972</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92329.44957773469</v>
+        <v>9919720.057447147</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101422.3799250052</v>
+        <v>10894094.28570241</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110515.3102722776</v>
+        <v>11868468.51395741</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119608.2406195501</v>
+        <v>12842842.7422124</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128728.4662355374</v>
+        <v>13813416.1071659</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>137880.6127670954</v>
+        <v>14779022.6147481</v>
       </c>
     </row>
   </sheetData>
